--- a/Pinouts/Pinouts.xlsx
+++ b/Pinouts/Pinouts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SamLinton\OneDrive\Documents\1. Current\Projects\ScratchBuiltRobotics\Pinouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Documents\[01] Projects\[01] ScratchBuiltRobotics\Pinouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2868CAA2-BA85-45D7-BFB6-0467623E4A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26380702-7DDE-49AD-8ABC-80F716068EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Pins" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="AnalogToDigital" sheetId="4" r:id="rId4"/>
     <sheet name=" Brain Pins" sheetId="5" r:id="rId5"/>
     <sheet name="RCCar Pins" sheetId="6" r:id="rId6"/>
-    <sheet name="Touch LED TFTILI9341" sheetId="7" r:id="rId7"/>
-    <sheet name="Screen ST7735" sheetId="9" r:id="rId8"/>
-    <sheet name="DRV8833 Motor Driver" sheetId="8" r:id="rId9"/>
+    <sheet name="Crawler" sheetId="10" r:id="rId7"/>
+    <sheet name="Touch LED TFTILI9341" sheetId="7" r:id="rId8"/>
+    <sheet name="Screen ST7735" sheetId="9" r:id="rId9"/>
+    <sheet name="DRV8833 Motor Driver" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="194">
   <si>
     <t>LEFT</t>
   </si>
@@ -595,13 +596,28 @@
   </si>
   <si>
     <t>Assume these are touch control</t>
+  </si>
+  <si>
+    <t>Servo Controller</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>TODO: add in details on Servo Controller Pins</t>
+  </si>
+  <si>
+    <t>Down Converter</t>
+  </si>
+  <si>
+    <t>BLE Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -687,8 +703,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,8 +826,14 @@
         <bgColor rgb="FF439ED6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1089,12 +1118,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="108">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,7 +1247,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1217,24 +1260,13 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1247,9 +1279,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1263,12 +1292,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,6 +1323,18 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1313,22 +1353,47 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2044,6 +2109,226 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="55"/>
+      <c r="B1" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="33">
+        <v>1</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="33">
+        <v>3</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="33">
+        <v>4</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="49"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="33">
+        <v>5</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="33">
+        <v>6</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="30"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -2174,7 +2459,7 @@
       <c r="F7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30"/>
@@ -2186,7 +2471,7 @@
       <c r="E8" s="33">
         <v>7</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="38" t="s">
@@ -2203,7 +2488,7 @@
       <c r="E9" s="33">
         <v>8</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="37" t="s">
@@ -2221,7 +2506,7 @@
       <c r="E10" s="33">
         <v>9</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="38" t="s">
@@ -2238,7 +2523,7 @@
       <c r="E11" s="33">
         <v>10</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="38" t="s">
@@ -2271,10 +2556,10 @@
       <c r="E13" s="33">
         <v>12</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="37" t="s">
@@ -2286,7 +2571,7 @@
       <c r="E14" s="33">
         <v>13</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="37" t="s">
@@ -2304,7 +2589,7 @@
       <c r="E15" s="33">
         <v>14</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="89" t="s">
@@ -2315,13 +2600,13 @@
     <row r="16" spans="1:12">
       <c r="B16" s="30"/>
       <c r="C16" s="90"/>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="33">
         <v>15</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="91"/>
@@ -2331,16 +2616,16 @@
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="90"/>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="33">
         <v>16</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="30"/>
@@ -2355,10 +2640,10 @@
       <c r="E18" s="33">
         <v>17</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="30"/>
@@ -2391,10 +2676,10 @@
       <c r="E20" s="33">
         <v>19</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="42" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="30"/>
@@ -2411,10 +2696,10 @@
       <c r="E21" s="33">
         <v>20</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="42" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="30"/>
@@ -2472,7 +2757,7 @@
       <c r="A2" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -2493,7 +2778,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="91"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -2511,7 +2796,7 @@
       <c r="G3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="89" t="s">
@@ -2537,16 +2822,16 @@
       <c r="G4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="89" t="s">
@@ -2566,10 +2851,10 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="90"/>
@@ -2585,19 +2870,19 @@
       <c r="G6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="43" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="90"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
@@ -2608,13 +2893,13 @@
       <c r="F7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="91"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
@@ -2622,7 +2907,7 @@
       <c r="E8" s="33">
         <v>7</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="38" t="s">
@@ -2643,7 +2928,7 @@
       <c r="E9" s="33">
         <v>8</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="37" t="s">
@@ -2653,10 +2938,10 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="89" t="s">
@@ -2668,18 +2953,18 @@
       <c r="E10" s="33">
         <v>9</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="8"/>
-      <c r="B11" s="45"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="90"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
@@ -2687,18 +2972,18 @@
       <c r="E11" s="33">
         <v>10</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="90"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
@@ -2714,8 +2999,8 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="91"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
@@ -2723,14 +3008,14 @@
       <c r="E13" s="33">
         <v>12</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="43" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2744,7 +3029,7 @@
       <c r="E14" s="33">
         <v>13</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="37" t="s">
@@ -2765,53 +3050,53 @@
       <c r="E15" s="33">
         <v>14</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="30"/>
       <c r="C16" s="90"/>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="33">
         <v>15</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="91"/>
-      <c r="H16" s="45"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="90"/>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="33">
         <v>16</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="45"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="91"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
@@ -2819,13 +3104,13 @@
       <c r="E18" s="33">
         <v>17</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9">
@@ -2851,7 +3136,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8"/>
-      <c r="B20" s="45"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="31" t="s">
         <v>13</v>
       </c>
@@ -2861,18 +3146,18 @@
       <c r="E20" s="33">
         <v>19</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8"/>
-      <c r="B21" s="45"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="31" t="s">
         <v>17</v>
       </c>
@@ -2882,14 +3167,14 @@
       <c r="E21" s="33">
         <v>20</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2923,11 +3208,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>78</v>
       </c>
       <c r="D1" s="30"/>
@@ -2936,10 +3221,10 @@
       <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="30"/>
@@ -2948,10 +3233,10 @@
       <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="30"/>
@@ -2960,10 +3245,10 @@
       <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="47" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2971,10 +3256,10 @@
       <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2982,33 +3267,33 @@
       <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="30" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3016,10 +3301,10 @@
       <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="50" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3027,10 +3312,10 @@
       <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="50" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3038,10 +3323,10 @@
       <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="50" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3057,7 +3342,9 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3085,7 +3372,7 @@
       <c r="A2" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -3106,7 +3393,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="91"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -3122,7 +3409,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="35"/>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
       <c r="I3" s="89" t="s">
@@ -3148,7 +3435,7 @@
       <c r="G4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="91"/>
@@ -3157,7 +3444,7 @@
       <c r="A5" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="89" t="s">
@@ -3178,7 +3465,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="90"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="90"/>
@@ -3194,19 +3481,19 @@
       <c r="G6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="43" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="91"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="90"/>
@@ -3219,13 +3506,13 @@
       <c r="F7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="91"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
@@ -3233,10 +3520,10 @@
       <c r="E8" s="33">
         <v>7</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="51" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="8"/>
@@ -3254,10 +3541,10 @@
       <c r="E9" s="33">
         <v>8</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="52" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="8"/>
@@ -3267,7 +3554,7 @@
       <c r="A10" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="89" t="s">
@@ -3279,18 +3566,18 @@
       <c r="E10" s="33">
         <v>9</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="90"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="90"/>
@@ -3300,18 +3587,18 @@
       <c r="E11" s="33">
         <v>10</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="91"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="90"/>
@@ -3329,10 +3616,10 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="91"/>
@@ -3342,14 +3629,14 @@
       <c r="E13" s="33">
         <v>12</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="43" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3365,7 +3652,7 @@
       <c r="E14" s="33">
         <v>13</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="37" t="s">
@@ -3378,7 +3665,7 @@
       <c r="A15" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="89" t="s">
@@ -3390,13 +3677,13 @@
       <c r="E15" s="33">
         <v>14</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
       <c r="I15" s="92" t="s">
@@ -3405,21 +3692,21 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="91"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="90"/>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="33">
         <v>15</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="91"/>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
       <c r="I16" s="91"/>
@@ -3428,23 +3715,23 @@
       <c r="A17" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="33">
         <v>16</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="43" t="s">
         <v>64</v>
       </c>
       <c r="I17" s="89" t="s">
@@ -3453,7 +3740,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="91"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="91"/>
@@ -3463,13 +3750,13 @@
       <c r="E18" s="33">
         <v>17</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="43" t="s">
         <v>110</v>
       </c>
       <c r="I18" s="91"/>
@@ -3486,7 +3773,7 @@
       <c r="E19" s="33">
         <v>18</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="37" t="s">
@@ -3497,8 +3784,8 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="61" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="32" t="s">
@@ -3507,23 +3794,23 @@
       <c r="E20" s="33">
         <v>19</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="61" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="32" t="s">
@@ -3532,16 +3819,16 @@
       <c r="E21" s="33">
         <v>20</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="43" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3575,13 +3862,20 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="9" width="10.140625" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3600,10 +3894,14 @@
       <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="93"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="31" t="s">
-        <v>8</v>
+      <c r="A2" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>5</v>
@@ -3619,10 +3917,12 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="94"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="31" t="s">
-        <v>3</v>
+      <c r="A3" s="102"/>
+      <c r="B3" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>10</v>
@@ -3634,11 +3934,11 @@
         <v>11</v>
       </c>
       <c r="G3" s="35"/>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="89" t="s">
-        <v>67</v>
+      <c r="I3" s="106" t="s">
+        <v>192</v>
       </c>
       <c r="L3" s="36"/>
     </row>
@@ -3660,14 +3960,14 @@
       <c r="G4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="30"/>
-      <c r="B5" s="63"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="89" t="s">
         <v>59</v>
       </c>
@@ -3686,7 +3986,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="30"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="90"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
@@ -3700,19 +4000,19 @@
       <c r="G6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="43" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30"/>
-      <c r="B7" s="63"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="90"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
@@ -3723,13 +4023,13 @@
       <c r="F7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="91"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
@@ -3737,7 +4037,7 @@
       <c r="E8" s="33">
         <v>7</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="38" t="s">
@@ -3758,7 +4058,7 @@
       <c r="E9" s="33">
         <v>8</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="37" t="s">
@@ -3768,8 +4068,12 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>193</v>
+      </c>
       <c r="C10" s="89" t="s">
         <v>60</v>
       </c>
@@ -3779,18 +4083,18 @@
       <c r="E10" s="33">
         <v>9</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="45"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="90"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
@@ -3798,18 +4102,18 @@
       <c r="E11" s="33">
         <v>10</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="90"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
@@ -3825,12 +4129,6 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>71</v>
-      </c>
       <c r="C13" s="91"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
@@ -3838,14 +4136,14 @@
       <c r="E13" s="33">
         <v>12</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="44" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="43" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3861,7 +4159,7 @@
       <c r="E14" s="33">
         <v>13</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="37" t="s">
@@ -3874,7 +4172,7 @@
       <c r="A15" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="89" t="s">
@@ -3886,66 +4184,66 @@
       <c r="E15" s="33">
         <v>14</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="89" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="91"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="90"/>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="33">
         <v>15</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="91"/>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="33">
         <v>16</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="62"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="91"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="91"/>
@@ -3955,14 +4253,14 @@
       <c r="E18" s="33">
         <v>17</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="62"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8"/>
@@ -3976,7 +4274,7 @@
       <c r="E19" s="33">
         <v>18</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="37" t="s">
@@ -3987,7 +4285,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8"/>
-      <c r="B20" s="45"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="31" t="s">
         <v>13</v>
       </c>
@@ -3997,22 +4295,22 @@
       <c r="E20" s="33">
         <v>19</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8"/>
-      <c r="B21" s="45"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="31" t="s">
         <v>17</v>
       </c>
@@ -4022,81 +4320,81 @@
       <c r="E21" s="33">
         <v>20</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="43" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="44" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="C24" s="64"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="51" t="s">
+      <c r="G24" s="56"/>
+      <c r="H24" s="46" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="C25" s="66"/>
-      <c r="D25" s="67" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="33">
         <v>1</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="50" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="61" t="s">
         <v>122</v>
       </c>
       <c r="E26" s="33">
         <v>2</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="50" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="61" t="s">
         <v>127</v>
       </c>
       <c r="E27" s="33">
@@ -4105,62 +4403,62 @@
       <c r="F27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="72"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="61" t="s">
         <v>129</v>
       </c>
       <c r="E28" s="33">
         <v>4</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="63" t="s">
         <v>79</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="72"/>
+      <c r="H28" s="49"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="61" t="s">
         <v>132</v>
       </c>
       <c r="E29" s="33">
         <v>5</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="50" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="C30" s="74"/>
-      <c r="D30" s="75" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="65" t="s">
         <v>136</v>
       </c>
       <c r="E30" s="33">
         <v>6</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H30" s="50" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4185,6 +4483,492 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31540CD4-B126-4FE7-A4C7-88A45F1D742B}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="33">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="102"/>
+      <c r="B3" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="33">
+        <v>3</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="91"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="30"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="33">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="30"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="33">
+        <v>5</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="30"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="33">
+        <v>6</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="33">
+        <v>7</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="33">
+        <v>8</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="33">
+        <v>9</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="54"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="33">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="54"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="33">
+        <v>11</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="91"/>
+      <c r="D13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="33">
+        <v>12</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="33">
+        <v>13</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="33">
+        <v>14</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="98"/>
+      <c r="D16" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="33">
+        <v>15</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="91"/>
+      <c r="H16" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="C17" s="98"/>
+      <c r="D17" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="33">
+        <v>16</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="C18" s="98"/>
+      <c r="D18" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="33">
+        <v>17</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="33">
+        <v>18</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="33">
+        <v>19</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="105"/>
+      <c r="B21" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="33">
+        <v>20</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="C23" s="44"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="C26" s="77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C10:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4204,215 +4988,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="30" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="76">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="76">
+      <c r="A4" s="66">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="47" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="76">
+      <c r="A5" s="66">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="47" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="76">
+      <c r="A6" s="66">
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="76">
+      <c r="A7" s="66">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="47" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="76">
+      <c r="A8" s="66">
         <v>6</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="76">
+      <c r="A9" s="66">
         <v>7</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="76">
+      <c r="A10" s="66">
         <v>8</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="50" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="76">
+      <c r="A11" s="66">
         <v>9</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="50" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="76">
+      <c r="A12" s="66">
         <v>10</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="76">
+      <c r="A13" s="66">
         <v>11</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="50" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="76">
-        <v>12</v>
-      </c>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="66">
+        <v>12</v>
+      </c>
+      <c r="B14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="76">
+      <c r="A15" s="66">
         <v>13</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="76">
+      <c r="A16" s="66">
         <v>14</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4421,11 +5205,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B43BB-6571-4E49-8DE6-1A5CDADBA573}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4439,409 +5223,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="58"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="30" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="76">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="101" t="s">
+      <c r="B3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="79" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="76">
+      <c r="A4" s="66">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="80" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="76">
+      <c r="A5" s="66">
         <v>3</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="97" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="75" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="76">
+      <c r="A6" s="66">
         <v>4</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="75" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="76">
+      <c r="A7" s="66">
         <v>5</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="97" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="75" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="76">
+      <c r="A8" s="66">
         <v>6</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="103" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="76">
+      <c r="A9" s="66">
         <v>7</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="103" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="81" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="76">
+      <c r="A10" s="66">
         <v>8</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="103" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="81" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="76">
+      <c r="A11" s="66">
         <v>9</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="76">
+      <c r="A12" s="66">
         <v>10</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="99" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="77" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="76">
+      <c r="A13" s="66">
         <v>11</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="76">
-        <v>12</v>
-      </c>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="66">
+        <v>12</v>
+      </c>
+      <c r="B14" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="76">
+      <c r="A15" s="66">
         <v>13</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="76">
+      <c r="A16" s="66">
         <v>14</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="B16" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="99"/>
+      <c r="C21" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="64"/>
-      <c r="B1" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="33">
-        <v>1</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="33">
-        <v>2</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="33">
-        <v>3</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="33">
-        <v>4</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="72"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="33">
-        <v>5</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="33">
-        <v>6</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="58"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="58"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="58" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1" gridLines="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
-</worksheet>
 </file>
--- a/Pinouts/Pinouts.xlsx
+++ b/Pinouts/Pinouts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Documents\[01] Projects\[01] ScratchBuiltRobotics\Pinouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26380702-7DDE-49AD-8ABC-80F716068EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78215B3F-170A-46DF-8352-5AF48E788CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31605" yWindow="2895" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Pins" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="AnalogToDigital" sheetId="4" r:id="rId4"/>
     <sheet name=" Brain Pins" sheetId="5" r:id="rId5"/>
     <sheet name="RCCar Pins" sheetId="6" r:id="rId6"/>
-    <sheet name="Crawler" sheetId="10" r:id="rId7"/>
-    <sheet name="Touch LED TFTILI9341" sheetId="7" r:id="rId8"/>
-    <sheet name="Screen ST7735" sheetId="9" r:id="rId9"/>
-    <sheet name="DRV8833 Motor Driver" sheetId="8" r:id="rId10"/>
+    <sheet name="Robot" sheetId="11" r:id="rId7"/>
+    <sheet name="Crawler" sheetId="10" r:id="rId8"/>
+    <sheet name="Touch LED TFTILI9341" sheetId="7" r:id="rId9"/>
+    <sheet name="Screen ST7735" sheetId="9" r:id="rId10"/>
+    <sheet name="DRV8833 Motor Driver" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="219">
   <si>
     <t>LEFT</t>
   </si>
@@ -611,13 +612,88 @@
   </si>
   <si>
     <t>BLE Status</t>
+  </si>
+  <si>
+    <t>Cont Motor 2 - 2</t>
+  </si>
+  <si>
+    <t>Cont Motor 2 - 1</t>
+  </si>
+  <si>
+    <t>Cont Motor 1 - 2</t>
+  </si>
+  <si>
+    <t>Cont Motor 1 - 1</t>
+  </si>
+  <si>
+    <t>Auton.</t>
+  </si>
+  <si>
+    <t>6DOF</t>
+  </si>
+  <si>
+    <t>Pico Pins</t>
+  </si>
+  <si>
+    <t>Trig</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>BLE</t>
+  </si>
+  <si>
+    <t>GP06</t>
+  </si>
+  <si>
+    <t>GP07</t>
+  </si>
+  <si>
+    <t>GP16, GP17</t>
+  </si>
+  <si>
+    <t>Status LED (JST-XH)</t>
+  </si>
+  <si>
+    <t>6DOF (JST-XH)</t>
+  </si>
+  <si>
+    <t>I2C Connector (JST-XH)</t>
+  </si>
+  <si>
+    <t>US Distance (JST-XH)</t>
+  </si>
+  <si>
+    <t>Servo  (Dupont)</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Power LED</t>
+  </si>
+  <si>
+    <t>CONNECTORS</t>
+  </si>
+  <si>
+    <t>GP`5</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Could change I2C connector to match OLED</t>
+  </si>
+  <si>
+    <t>Could change US connector to match US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -710,8 +786,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,8 +929,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF439ED6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1133,11 +1242,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,6 +1470,27 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,47 +1509,69 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1626,19 +1804,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -2110,6 +2288,211 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B43BB-6571-4E49-8DE6-1A5CDADBA573}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="66">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="66">
+        <v>3</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="66">
+        <v>4</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="66">
+        <v>5</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="66">
+        <v>6</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="66">
+        <v>7</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="66">
+        <v>8</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="66">
+        <v>9</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="66">
+        <v>10</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="66">
+        <v>11</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="66">
+        <v>12</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="66">
+        <v>13</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="66">
+        <v>14</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="77"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2336,7 +2719,9 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2346,19 +2731,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="30"/>
@@ -2416,7 +2801,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="30"/>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="96" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -2432,7 +2817,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="30"/>
-      <c r="C6" s="90"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2834,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="90"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -2464,7 +2849,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="91"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -2497,7 +2882,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="30"/>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="96" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -2516,7 +2901,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="30"/>
-      <c r="C11" s="90"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -2534,7 +2919,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="90"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -2549,7 +2934,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="91"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -2580,7 +2965,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="30"/>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="96" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -2592,14 +2977,14 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="96" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="30"/>
-      <c r="C16" s="90"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -2609,13 +2994,13 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="90"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -2633,7 +3018,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="91"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -2739,22 +3124,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="96" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2777,7 +3162,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="91"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="43" t="s">
         <v>65</v>
       </c>
@@ -2799,7 +3184,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="96" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
@@ -2825,7 +3210,7 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="91"/>
+      <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
@@ -2834,7 +3219,7 @@
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="96" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -2857,7 +3242,7 @@
       <c r="B6" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="90"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -2883,7 +3268,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="90"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -2900,7 +3285,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="91"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -2944,7 +3329,7 @@
       <c r="B10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="96" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -2965,7 +3350,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="90"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -2984,7 +3369,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="90"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -3001,7 +3386,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="91"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -3041,7 +3426,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="96" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -3053,7 +3438,7 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="96" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="8"/>
@@ -3061,7 +3446,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="30"/>
-      <c r="C16" s="90"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -3071,14 +3456,14 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="90"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -3097,7 +3482,7 @@
     <row r="18" spans="1:9">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="91"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3354,22 +3739,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="96" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -3392,7 +3777,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="91"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="43" t="s">
         <v>64</v>
       </c>
@@ -3412,7 +3797,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="96" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
@@ -3438,16 +3823,16 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="91"/>
+      <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="96" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="96" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -3464,11 +3849,11 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="90"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="90"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -3492,11 +3877,11 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="91"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -3513,7 +3898,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="91"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -3551,13 +3936,13 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="96" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="96" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3576,11 +3961,11 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="90"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -3597,11 +3982,11 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="91"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -3622,7 +4007,7 @@
       <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="91"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -3662,13 +4047,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="96" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="96" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -3680,22 +4065,22 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="96" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="99" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="91"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -3705,20 +4090,20 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="98"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="96" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -3734,16 +4119,16 @@
       <c r="H17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="96" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="91"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3759,7 +4144,7 @@
       <c r="H18" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="91"/>
+      <c r="I18" s="98"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8"/>
@@ -3863,7 +4248,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection sqref="A1:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3879,25 +4264,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="88" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="53" t="s">
@@ -3917,8 +4302,8 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="102"/>
-      <c r="B3" s="100" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="53" t="s">
@@ -3937,7 +4322,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="102" t="s">
         <v>192</v>
       </c>
       <c r="L3" s="36"/>
@@ -3963,12 +4348,12 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="91"/>
+      <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="96" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -3987,7 +4372,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="90"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -4013,7 +4398,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="90"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -4030,7 +4415,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="91"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -4071,10 +4456,10 @@
       <c r="A10" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="96" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -4095,7 +4480,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="54"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="90"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -4114,7 +4499,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="90"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -4129,7 +4514,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="91"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -4169,13 +4554,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="96" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="96" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -4187,22 +4572,22 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="96" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="96" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="91"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -4212,20 +4597,20 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
       <c r="I16" s="103"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="96" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -4242,11 +4627,11 @@
       <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="91"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -4483,49 +4868,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31540CD4-B126-4FE7-A4C7-88A45F1D742B}">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1C3080-FCA5-4C5F-B176-604DA64226ED}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="101" t="s">
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="K1" s="118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="32" t="s">
@@ -4541,12 +4932,12 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="102"/>
-      <c r="B3" s="100" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="101"/>
+      <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="53" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="32" t="s">
@@ -4562,11 +4953,15 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="102" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="118" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="118"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="37" t="s">
@@ -4587,12 +4982,18 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="91"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="98"/>
+      <c r="K4" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="117" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="96" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -4607,11 +5008,17 @@
       <c r="G5" s="35"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="117" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="90"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -4624,20 +5031,23 @@
       <c r="G6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="H6" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="117" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="90"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -4650,11 +5060,17 @@
       <c r="G7" s="35"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="91"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -4670,7 +5086,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="37" t="s">
@@ -4690,15 +5106,18 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="43" t="s">
+      <c r="K9" s="118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="96" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -4715,11 +5134,21 @@
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="54"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="90"/>
+      <c r="K10" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="117" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="110"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -4734,11 +5163,17 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="90"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -4751,9 +5186,15 @@
       <c r="G12" s="35"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="91"/>
+      <c r="K12" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="123" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="98"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -4770,11 +5211,17 @@
       <c r="I13" s="43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -4791,12 +5238,20 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="C15" s="97" t="s">
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="32" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="33">
@@ -4805,19 +5260,26 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="96" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="96" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="C16" s="98"/>
-      <c r="D16" s="94" t="s">
+      <c r="K15" s="124" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="98"/>
+      <c r="B16" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="33">
@@ -4826,15 +5288,27 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="91"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="C17" s="98"/>
-      <c r="D17" s="94" t="s">
+      <c r="I16" s="103"/>
+      <c r="K16" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="33">
@@ -4848,10 +5322,785 @@
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="54"/>
+      <c r="K17" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="117" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="98"/>
+      <c r="B18" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="33">
+        <v>17</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="54"/>
+      <c r="K18" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="33">
+        <v>18</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="K19" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="117" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="33">
+        <v>19</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="116"/>
+      <c r="B21" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="33">
+        <v>20</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="118" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="K22" s="117" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="C23" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="117" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="C24" s="55"/>
+      <c r="D24" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="121" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="33">
+        <v>1</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="C26" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="33">
+        <v>2</v>
+      </c>
+      <c r="F26" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="C27" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="33">
+        <v>3</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="109"/>
+      <c r="H27" s="108"/>
+      <c r="K27" s="118" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="C28" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="33">
+        <v>4</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="108"/>
+      <c r="K28" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" s="120" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="C29" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="33">
+        <v>5</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="120" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="C30" s="64"/>
+      <c r="D30" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="33">
+        <v>6</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="120" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="118" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="118" customFormat="1">
+      <c r="A33" s="77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="122"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="E35" s="122"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="E36" s="122"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="125"/>
+      <c r="E37" s="122"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" s="122"/>
+      <c r="E38" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C5:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31540CD4-B126-4FE7-A4C7-88A45F1D742B}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
+      <c r="K1" s="118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="100" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="33">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="101"/>
+      <c r="B3" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="118" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="118"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="33">
+        <v>3</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="98"/>
+      <c r="K4" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="30"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="33">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="126" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="30"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="33">
+        <v>5</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="30"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="33">
+        <v>6</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="117" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" s="117" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="33">
+        <v>7</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="33">
+        <v>8</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="33">
+        <v>9</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="124" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="33">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="K11" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="33">
+        <v>11</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="117" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="98"/>
+      <c r="D13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="33">
+        <v>12</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="117" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="33">
+        <v>13</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="117" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="117" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="33">
+        <v>14</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="105"/>
+      <c r="D16" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="33">
+        <v>15</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="98"/>
+      <c r="H16" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="98"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="C17" s="105"/>
+      <c r="D17" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="33">
+        <v>16</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="C18" s="98"/>
-      <c r="D18" s="93" t="s">
+      <c r="C18" s="105"/>
+      <c r="D18" s="83" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="33">
@@ -4869,7 +6118,7 @@
     <row r="19" spans="1:9">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="86" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="37" t="s">
@@ -4888,10 +6137,10 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="88" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="53" t="s">
@@ -4917,8 +6166,8 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="105"/>
-      <c r="B21" s="100" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="88" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -4968,7 +6217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4976,7 +6225,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5203,209 +6452,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B43BB-6571-4E49-8DE6-1A5CDADBA573}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="66">
-        <v>1</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="66">
-        <v>2</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="66">
-        <v>3</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="75" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="66">
-        <v>4</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="66">
-        <v>5</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="66">
-        <v>6</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="81" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="66">
-        <v>7</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="66">
-        <v>8</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="81" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="66">
-        <v>9</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="66">
-        <v>10</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="77" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="66">
-        <v>11</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="66">
-        <v>12</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="66">
-        <v>13</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="66">
-        <v>14</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="77"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Pinouts/Pinouts.xlsx
+++ b/Pinouts/Pinouts.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Documents\[01] Projects\[01] ScratchBuiltRobotics\Pinouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SamL3\Documents\GitHub\ScratchBuiltRobotics\Pinouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78215B3F-170A-46DF-8352-5AF48E788CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92072A65-F6EC-479E-B78A-B77F61681328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31605" yWindow="2895" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Pins" sheetId="1" r:id="rId1"/>
     <sheet name="Default Pins" sheetId="2" r:id="rId2"/>
     <sheet name="BLEJoystickController Pins" sheetId="3" r:id="rId3"/>
     <sheet name="AnalogToDigital" sheetId="4" r:id="rId4"/>
-    <sheet name=" Brain Pins" sheetId="5" r:id="rId5"/>
-    <sheet name="RCCar Pins" sheetId="6" r:id="rId6"/>
-    <sheet name="Robot" sheetId="11" r:id="rId7"/>
-    <sheet name="Crawler" sheetId="10" r:id="rId8"/>
-    <sheet name="Touch LED TFTILI9341" sheetId="7" r:id="rId9"/>
-    <sheet name="Screen ST7735" sheetId="9" r:id="rId10"/>
-    <sheet name="DRV8833 Motor Driver" sheetId="8" r:id="rId11"/>
+    <sheet name="BLESingleJoystick" sheetId="12" r:id="rId5"/>
+    <sheet name=" Brain Pins" sheetId="5" r:id="rId6"/>
+    <sheet name="RCCar Pins" sheetId="6" r:id="rId7"/>
+    <sheet name="Robot" sheetId="11" r:id="rId8"/>
+    <sheet name="Crawler" sheetId="10" r:id="rId9"/>
+    <sheet name="Touch LED TFTILI9341" sheetId="7" r:id="rId10"/>
+    <sheet name="Screen ST7735" sheetId="9" r:id="rId11"/>
+    <sheet name="DRV8833 Motor Driver" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="221">
   <si>
     <t>LEFT</t>
   </si>
@@ -687,6 +688,12 @@
   </si>
   <si>
     <t>Could change US connector to match US</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -942,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1268,11 +1275,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,6 +1561,42 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1519,6 +1625,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,49 +1642,40 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1796,29 +1900,29 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="9" width="10.140625" customWidth="1"/>
+    <col min="1" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="9" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1841,7 +1945,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1968,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
@@ -1881,7 +1985,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="17" t="s">
         <v>13</v>
@@ -1902,7 +2006,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="17" t="s">
         <v>17</v>
@@ -1923,7 +2027,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
@@ -1948,7 +2052,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
@@ -1973,7 +2077,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="8"/>
       <c r="C9" s="13"/>
@@ -1992,7 +2096,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="17" t="s">
         <v>13</v>
@@ -2017,7 +2121,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="17" t="s">
         <v>17</v>
@@ -2042,7 +2146,7 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
@@ -2065,7 +2169,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
@@ -2088,7 +2192,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="8"/>
       <c r="C14" s="13"/>
@@ -2105,7 +2209,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="17" t="s">
         <v>13</v>
@@ -2128,7 +2232,7 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="17" t="s">
         <v>17</v>
@@ -2151,7 +2255,7 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +2282,7 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
@@ -2205,7 +2309,7 @@
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="8"/>
       <c r="C19" s="13"/>
@@ -2222,7 +2326,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="17" t="s">
         <v>13</v>
@@ -2249,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="17" t="s">
         <v>17</v>
@@ -2288,6 +2392,243 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="66">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="66">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="66">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="66">
+        <v>4</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="66">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="66">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="66">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="66">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="66">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="66">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="66">
+        <v>11</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="66">
+        <v>12</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="66">
+        <v>13</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="66">
+        <v>14</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B43BB-6571-4E49-8DE6-1A5CDADBA573}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -2295,16 +2636,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13">
       <c r="A1" s="74" t="s">
         <v>180</v>
       </c>
@@ -2492,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2503,14 +2844,14 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="37" t="s">
         <v>114</v>
@@ -2524,7 +2865,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="57"/>
       <c r="B2" s="58" t="s">
         <v>117</v>
@@ -2542,7 +2883,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="61" t="s">
         <v>121</v>
       </c>
@@ -2562,7 +2903,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="61" t="s">
         <v>126</v>
       </c>
@@ -2578,7 +2919,7 @@
       <c r="E4" s="62"/>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="61" t="s">
         <v>128</v>
       </c>
@@ -2596,7 +2937,7 @@
       </c>
       <c r="F5" s="49"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="61" t="s">
         <v>131</v>
       </c>
@@ -2616,7 +2957,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="64"/>
       <c r="B7" s="65" t="s">
         <v>136</v>
@@ -2634,13 +2975,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="30"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="30"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="67" t="s">
         <v>171</v>
       </c>
@@ -2652,7 +2993,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="70" t="s">
         <v>174</v>
       </c>
@@ -2664,7 +3005,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="70" t="s">
         <v>176</v>
       </c>
@@ -2676,7 +3017,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="70" t="s">
         <v>174</v>
       </c>
@@ -2688,7 +3029,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="70" t="s">
         <v>176</v>
       </c>
@@ -2700,7 +3041,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="30" t="s">
         <v>179</v>
       </c>
@@ -2723,29 +3064,29 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="9" width="10.140625" customWidth="1"/>
+    <col min="1" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="9" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="31" t="s">
@@ -2762,7 +3103,7 @@
       </c>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31" t="s">
@@ -2782,7 +3123,7 @@
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="C4" s="37" t="s">
         <v>12</v>
       </c>
@@ -2799,9 +3140,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="30"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -2815,9 +3156,9 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="30"/>
-      <c r="C6" s="97"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -2831,10 +3172,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="97"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -2846,10 +3187,10 @@
       </c>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="98"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -2863,7 +3204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="C9" s="37" t="s">
         <v>12</v>
       </c>
@@ -2880,9 +3221,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="30"/>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="112" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -2899,9 +3240,9 @@
       </c>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="B11" s="30"/>
-      <c r="C11" s="97"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -2916,10 +3257,10 @@
       </c>
       <c r="H11" s="30"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="97"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -2931,10 +3272,10 @@
       </c>
       <c r="G12" s="35"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="98"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -2946,7 +3287,7 @@
       </c>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="C14" s="37" t="s">
         <v>12</v>
       </c>
@@ -2963,9 +3304,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="B15" s="30"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="112" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -2977,14 +3318,14 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="112" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="30"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="30"/>
-      <c r="C16" s="97"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -2994,13 +3335,13 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="97"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -3015,10 +3356,10 @@
       </c>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="98"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3033,7 +3374,7 @@
       </c>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="C19" s="37" t="s">
         <v>12</v>
       </c>
@@ -3050,7 +3391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="B20" s="30"/>
       <c r="C20" s="31" t="s">
         <v>13</v>
@@ -3070,7 +3411,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="B21" s="30"/>
       <c r="C21" s="31" t="s">
         <v>17</v>
@@ -3113,33 +3454,33 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="9" width="10.140625" customWidth="1"/>
+    <col min="1" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="9" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="96" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -3161,8 +3502,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="98"/>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="114"/>
       <c r="B3" s="43" t="s">
         <v>65</v>
       </c>
@@ -3184,12 +3525,12 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="112" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="37" t="s">
@@ -3210,16 +3551,16 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="98"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="I4" s="114"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -3235,14 +3576,14 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="97"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -3265,10 +3606,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="97"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -3282,10 +3623,10 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="98"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -3301,7 +3642,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="37" t="s">
@@ -3322,14 +3663,14 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="43" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="112" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3347,10 +3688,10 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="97"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -3366,10 +3707,10 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="97"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -3383,10 +3724,10 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="98"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -3404,7 +3745,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="C14" s="37" t="s">
         <v>12</v>
       </c>
@@ -3423,10 +3764,10 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="112" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -3438,15 +3779,15 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="112" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="30"/>
-      <c r="C16" s="97"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -3456,14 +3797,14 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="97"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -3479,10 +3820,10 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="98"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3498,7 +3839,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="37" t="s">
@@ -3519,7 +3860,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="31" t="s">
@@ -3540,7 +3881,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="31" t="s">
@@ -3587,9 +3928,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3602,7 +3943,7 @@
       </c>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -3614,7 +3955,7 @@
       </c>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="33">
         <v>2</v>
       </c>
@@ -3626,7 +3967,7 @@
       </c>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -3637,7 +3978,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -3648,7 +3989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -3658,7 +3999,7 @@
       <c r="C6" s="49"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="33">
         <v>6</v>
       </c>
@@ -3668,7 +4009,7 @@
       <c r="C7" s="49"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -3682,7 +4023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -3693,7 +4034,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -3704,7 +4045,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="33">
         <v>10</v>
       </c>
@@ -3721,6 +4062,474 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211147EF-ADFD-4B7E-A66F-BDFB2B4B34E8}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="9" width="10.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="33">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="130"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="33">
+        <v>3</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="114"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="33">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="128"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="33">
+        <v>5</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="128"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="33">
+        <v>6</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="33">
+        <v>7</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="33">
+        <v>8</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="33">
+        <v>9</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="133" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="33">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="134"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="33">
+        <v>11</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="33">
+        <v>12</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="C14" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="33">
+        <v>13</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="135"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="33">
+        <v>14</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="135"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="33">
+        <v>15</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="114"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="33">
+        <v>16</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="33">
+        <v>17</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="33">
+        <v>18</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="33">
+        <v>19</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="33">
+        <v>20</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C10:C13"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3731,30 +4540,30 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="9" width="10.140625" customWidth="1"/>
+    <col min="1" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="9" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="96" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="112" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -3776,8 +4585,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="98"/>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="114"/>
       <c r="B3" s="43" t="s">
         <v>64</v>
       </c>
@@ -3797,12 +4606,12 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="112" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="37" t="s">
@@ -3823,16 +4632,16 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="98"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="96" t="s">
+      <c r="I4" s="114"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="112" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -3848,12 +4657,12 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="97"/>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="113"/>
       <c r="B6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="97"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -3876,12 +4685,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="98"/>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A7" s="114"/>
       <c r="B7" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -3895,10 +4704,10 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="98"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -3914,7 +4723,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="37" t="s">
@@ -3935,14 +4744,14 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="96" t="s">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="112" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="112" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3960,12 +4769,12 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="97"/>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="113"/>
       <c r="B11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -3981,12 +4790,12 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="98"/>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="114"/>
       <c r="B12" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -4000,14 +4809,14 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="43" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="98"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -4025,7 +4834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="37" t="s">
@@ -4046,14 +4855,14 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="96" t="s">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="112" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="112" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -4065,22 +4874,22 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="112" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="99" t="s">
+      <c r="I15" s="115" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="98"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="114"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -4090,20 +4899,20 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="98"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="96" t="s">
+      <c r="I16" s="114"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="112" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -4119,16 +4928,16 @@
       <c r="H17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="I17" s="112" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="98"/>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="114"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -4144,9 +4953,9 @@
       <c r="H18" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="98"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="114"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="37" t="s">
@@ -4167,7 +4976,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="53" t="s">
@@ -4192,7 +5001,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="53" t="s">
@@ -4240,7 +5049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4251,35 +5060,35 @@
       <selection sqref="A1:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="100" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="116" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -4301,8 +5110,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="101"/>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="117"/>
       <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
@@ -4322,12 +5131,12 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="118" t="s">
         <v>192</v>
       </c>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="37" t="s">
@@ -4348,12 +5157,12 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="98"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="I4" s="114"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -4369,10 +5178,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="97"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -4395,10 +5204,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="97"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -4412,10 +5221,10 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="98"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -4431,7 +5240,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="37" t="s">
@@ -4452,14 +5261,14 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="43" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="112" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -4477,10 +5286,10 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="97"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -4496,10 +5305,10 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="97"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -4513,8 +5322,8 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="C13" s="98"/>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="C13" s="114"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -4532,7 +5341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="37" t="s">
@@ -4553,14 +5362,14 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="96" t="s">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="112" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="112" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -4572,22 +5381,22 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="112" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="I15" s="112" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="98"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="114"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -4597,20 +5406,20 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="103"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="96" t="s">
+      <c r="I16" s="119"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="112" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -4626,12 +5435,12 @@
       <c r="H17" s="8"/>
       <c r="I17" s="54"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="98"/>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="114"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -4647,7 +5456,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="54"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="37" t="s">
@@ -4668,7 +5477,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="31" t="s">
@@ -4693,7 +5502,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="31" t="s">
@@ -4723,7 +5532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="12.5">
       <c r="C24" s="55"/>
       <c r="D24" s="37" t="s">
         <v>114</v>
@@ -4737,7 +5546,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="12.5">
       <c r="C25" s="57"/>
       <c r="D25" s="58" t="s">
         <v>117</v>
@@ -4755,7 +5564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="12.5">
       <c r="C26" s="61" t="s">
         <v>121</v>
       </c>
@@ -4775,7 +5584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="12.5">
       <c r="C27" s="61" t="s">
         <v>126</v>
       </c>
@@ -4791,7 +5600,7 @@
       <c r="G27" s="62"/>
       <c r="H27" s="49"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="12.5">
       <c r="C28" s="61" t="s">
         <v>128</v>
       </c>
@@ -4809,7 +5618,7 @@
       </c>
       <c r="H28" s="49"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="12.5">
       <c r="C29" s="61" t="s">
         <v>131</v>
       </c>
@@ -4829,7 +5638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="12.5">
       <c r="C30" s="64"/>
       <c r="D30" s="65" t="s">
         <v>136</v>
@@ -4867,50 +5676,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1C3080-FCA5-4C5F-B176-604DA64226ED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:12" ht="13">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-      <c r="K1" s="118" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+      <c r="K1" s="97" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="116" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -4932,8 +5741,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="101"/>
+    <row r="3" spans="1:12" ht="13">
+      <c r="A3" s="117"/>
       <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
@@ -4953,13 +5762,13 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="118" t="s">
+      <c r="K3" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="L3" s="118"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8"/>
@@ -4982,18 +5791,18 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="K4" s="117" t="s">
+      <c r="I4" s="114"/>
+      <c r="K4" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="96" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -5008,17 +5817,17 @@
       <c r="G5" s="35"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="117" t="s">
+      <c r="K5" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="L5" s="117" t="s">
+      <c r="L5" s="96" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="97"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -5037,17 +5846,17 @@
       <c r="I6" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="K6" s="117" t="s">
+      <c r="K6" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="L6" s="117" t="s">
+      <c r="L6" s="96" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="97"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -5060,17 +5869,17 @@
       <c r="G7" s="35"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="K7" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="117" t="s">
+      <c r="K7" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="96" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="98"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -5086,7 +5895,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="13">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="37" t="s">
@@ -5106,18 +5915,18 @@
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="K9" s="118" t="s">
+      <c r="K9" s="97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="112" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -5134,21 +5943,21 @@
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="K10" s="117" t="s">
+      <c r="K10" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="L10" s="117" t="s">
+      <c r="L10" s="96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -5163,17 +5972,17 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="K11" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="117" t="s">
+      <c r="K11" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="96" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="97"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -5186,15 +5995,15 @@
       <c r="G12" s="35"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="123" t="s">
+      <c r="L12" s="102" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="98"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -5211,10 +6020,10 @@
       <c r="I13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="117" t="s">
+      <c r="L13" s="96" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5238,17 +6047,17 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="96" t="s">
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+    </row>
+    <row r="15" spans="1:12" ht="13">
+      <c r="A15" s="112" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="112" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -5260,25 +6069,25 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="112" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="I15" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="124" t="s">
+      <c r="K15" s="103" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="98"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -5288,26 +6097,26 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="103"/>
-      <c r="K16" s="117" t="s">
+      <c r="I16" s="119"/>
+      <c r="K16" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="117" t="s">
+      <c r="L16" s="96" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -5322,19 +6131,19 @@
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="54"/>
-      <c r="K17" s="117" t="s">
+      <c r="K17" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="117" t="s">
+      <c r="L17" s="96" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="98"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="98"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -5349,10 +6158,10 @@
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="54"/>
-      <c r="K18" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="117" t="s">
+      <c r="K18" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="96" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5376,18 +6185,18 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="K19" s="117" t="s">
+      <c r="K19" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="L19" s="117" t="s">
+      <c r="L19" s="96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="95" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="53" t="s">
@@ -5412,9 +6221,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="116"/>
-      <c r="B21" s="114" t="s">
+    <row r="21" spans="1:12" ht="13">
+      <c r="A21" s="121"/>
+      <c r="B21" s="95" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -5438,26 +6247,26 @@
       <c r="I21" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="K21" s="118" t="s">
+      <c r="K21" s="97" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="K22" s="117" t="s">
+      <c r="K22" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="117" t="s">
+      <c r="L22" s="96" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="13">
       <c r="C23" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="117" t="s">
+      <c r="K23" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="117" t="s">
+      <c r="L23" s="96" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5471,13 +6280,13 @@
         <v>115</v>
       </c>
       <c r="G24" s="56"/>
-      <c r="H24" s="121" t="s">
+      <c r="H24" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="K24" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="117" t="s">
+      <c r="K24" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="96" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5498,10 +6307,10 @@
       <c r="H25" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="117" t="s">
+      <c r="K25" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="117" t="s">
+      <c r="L25" s="96" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5515,7 +6324,7 @@
       <c r="E26" s="33">
         <v>2</v>
       </c>
-      <c r="F26" s="119" t="s">
+      <c r="F26" s="98" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="59" t="s">
@@ -5525,7 +6334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" ht="13">
       <c r="C27" s="61" t="s">
         <v>126</v>
       </c>
@@ -5538,9 +6347,9 @@
       <c r="F27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="109"/>
-      <c r="H27" s="108"/>
-      <c r="K27" s="118" t="s">
+      <c r="G27" s="91"/>
+      <c r="H27" s="90"/>
+      <c r="K27" s="97" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5560,11 +6369,11 @@
       <c r="G28" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="108"/>
-      <c r="K28" s="120" t="s">
+      <c r="H28" s="90"/>
+      <c r="K28" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="L28" s="120" t="s">
+      <c r="L28" s="99" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5587,10 +6396,10 @@
       <c r="H29" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="120" t="s">
+      <c r="K29" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="120" t="s">
+      <c r="L29" s="99" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5611,19 +6420,19 @@
       <c r="H30" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="118" t="s">
+      <c r="K30" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="13">
+      <c r="A32" s="97" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="118" customFormat="1">
+    <row r="33" spans="1:5" s="97" customFormat="1" ht="13">
       <c r="A33" s="77" t="s">
         <v>217</v>
       </c>
@@ -5632,29 +6441,24 @@
       <c r="A34" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="E34" s="122"/>
+      <c r="E34" s="101"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="E35" s="122"/>
+      <c r="E35" s="101"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="E36" s="122"/>
+      <c r="E36" s="101"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="125"/>
-      <c r="E37" s="122"/>
+      <c r="A37" s="104"/>
+      <c r="E37" s="101"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="C38" s="122"/>
-      <c r="E38" s="122"/>
+      <c r="C38" s="101"/>
+      <c r="E38" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:D1"/>
@@ -5662,13 +6466,18 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31540CD4-B126-4FE7-A4C7-88A45F1D742B}">
   <dimension ref="A1:L26"/>
   <sheetViews>
@@ -5676,41 +6485,41 @@
       <selection activeCell="O19" sqref="O19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:12" ht="13">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="95"/>
-      <c r="K1" s="118" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+      <c r="K1" s="97" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="116" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -5732,8 +6541,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="101"/>
+    <row r="3" spans="1:12" ht="13">
+      <c r="A3" s="117"/>
       <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
@@ -5753,13 +6562,13 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="102" t="s">
+      <c r="I3" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="118" t="s">
+      <c r="K3" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="L3" s="118"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="8"/>
@@ -5782,18 +6591,18 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="K4" s="117" t="s">
+      <c r="I4" s="114"/>
+      <c r="K4" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="96" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="112" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -5808,17 +6617,17 @@
       <c r="G5" s="35"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="K5" s="126" t="s">
+      <c r="K5" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="126" t="s">
+      <c r="L5" s="105" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="97"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -5837,17 +6646,17 @@
       <c r="I6" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="K6" s="117" t="s">
+      <c r="K6" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="117" t="s">
+      <c r="L6" s="96" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="97"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -5860,17 +6669,17 @@
       <c r="G7" s="35"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="L7" s="117" t="s">
+      <c r="L7" s="96" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="98"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -5885,10 +6694,10 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="K8" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="117" t="s">
+      <c r="K8" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="96" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5913,14 +6722,14 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="13">
       <c r="A10" s="43" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="112" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -5937,14 +6746,14 @@
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="K10" s="124" t="s">
+      <c r="K10" s="103" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="54"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="97"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -5959,17 +6768,17 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="K11" s="117" t="s">
+      <c r="K11" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="117" t="s">
+      <c r="L11" s="96" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="97"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -5982,15 +6791,15 @@
       <c r="G12" s="35"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="K12" s="117" t="s">
+      <c r="K12" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="117" t="s">
+      <c r="L12" s="96" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="98"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -6007,10 +6816,10 @@
       <c r="I13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="117" t="s">
+      <c r="K13" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="96" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6034,15 +6843,15 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="K14" s="117" t="s">
+      <c r="K14" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="L14" s="117" t="s">
+      <c r="L14" s="96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="123" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="83" t="s">
@@ -6054,18 +6863,18 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="112" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="99" t="s">
+      <c r="I15" s="115" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="C16" s="105"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="84" t="s">
         <v>46</v>
       </c>
@@ -6075,14 +6884,14 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="98"/>
+      <c r="I16" s="114"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="C17" s="105"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="84" t="s">
         <v>48</v>
       </c>
@@ -6099,7 +6908,7 @@
       <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="C18" s="105"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="83" t="s">
         <v>50</v>
       </c>
@@ -6137,7 +6946,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="125" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="88" t="s">
@@ -6166,7 +6975,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="107"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="88" t="s">
         <v>65</v>
       </c>
@@ -6192,7 +7001,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="13">
       <c r="C23" s="44"/>
     </row>
     <row r="26" spans="1:9">
@@ -6215,241 +7024,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="66">
-        <v>1</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="66">
-        <v>2</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="66">
-        <v>3</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="66">
-        <v>4</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="66">
-        <v>5</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="66">
-        <v>6</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="66">
-        <v>7</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="66">
-        <v>8</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="66">
-        <v>9</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="66">
-        <v>10</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="66">
-        <v>11</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="66">
-        <v>12</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="66">
-        <v>13</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="66">
-        <v>14</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Pinouts/Pinouts.xlsx
+++ b/Pinouts/Pinouts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SamL3\Documents\GitHub\ScratchBuiltRobotics\Pinouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Documents\[01] Projects\[01] ScratchBuiltRobotics\Pinouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92072A65-F6EC-479E-B78A-B77F61681328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E95034-5296-47D2-9B4C-B5E6BC82AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="3525" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Pins" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,25 @@
     <sheet name="Screen ST7735" sheetId="9" r:id="rId11"/>
     <sheet name="DRV8833 Motor Driver" sheetId="8" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="222">
   <si>
     <t>LEFT</t>
   </si>
@@ -694,6 +707,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Check these</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1590,13 +1606,23 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1612,6 +1638,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1631,7 +1672,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,40 +1681,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1900,27 +1906,27 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="9" width="10.1796875" customWidth="1"/>
+    <col min="1" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="112"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2402,15 +2408,15 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="44" t="s">
         <v>140</v>
       </c>
@@ -2636,16 +2642,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13">
+    <row r="1" spans="1:5">
       <c r="A1" s="74" t="s">
         <v>180</v>
       </c>
@@ -2844,11 +2850,11 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -3064,27 +3070,27 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="9" width="10.1796875" customWidth="1"/>
+    <col min="1" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="112"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="30"/>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="30"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="116" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -3158,7 +3164,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="30"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -3175,7 +3181,7 @@
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -3190,7 +3196,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -3223,7 +3229,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="30"/>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="116" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3242,7 +3248,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="B11" s="30"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -3260,7 +3266,7 @@
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -3275,7 +3281,7 @@
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="114"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -3306,7 +3312,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="B15" s="30"/>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="116" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -3318,14 +3324,14 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="116" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="30"/>
-      <c r="C16" s="113"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -3335,13 +3341,13 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="113"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -3359,7 +3365,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="114"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3457,30 +3463,30 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="9" width="10.1796875" customWidth="1"/>
+    <col min="1" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="116" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -3503,7 +3509,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="43" t="s">
         <v>65</v>
       </c>
@@ -3525,7 +3531,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="116" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
@@ -3551,7 +3557,7 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="43" t="s">
@@ -3560,7 +3566,7 @@
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="116" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -3583,7 +3589,7 @@
       <c r="B6" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -3609,7 +3615,7 @@
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -3626,7 +3632,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -3670,7 +3676,7 @@
       <c r="B10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="116" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3691,7 +3697,7 @@
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -3710,7 +3716,7 @@
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -3727,7 +3733,7 @@
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="114"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -3767,7 +3773,7 @@
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="116" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -3779,7 +3785,7 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="116" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="8"/>
@@ -3787,7 +3793,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="30"/>
-      <c r="C16" s="113"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -3797,14 +3803,14 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="113"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -3823,7 +3829,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="114"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3928,12 +3934,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="12.75">
       <c r="A1" s="33"/>
       <c r="B1" s="44" t="s">
         <v>77</v>
@@ -4068,35 +4074,35 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="9" width="10.1796875" customWidth="1"/>
+    <col min="1" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
@@ -4114,8 +4120,8 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="53" t="s">
         <v>8</v>
       </c>
@@ -4134,7 +4140,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="116" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
@@ -4160,16 +4166,16 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="124" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -4186,9 +4192,9 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="122"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -4201,18 +4207,18 @@
       <c r="G6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="128"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -4229,7 +4235,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -4273,7 +4279,7 @@
       <c r="B10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="116" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -4291,14 +4297,14 @@
       <c r="H10" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="I10" s="133" t="s">
+      <c r="I10" s="122" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -4314,12 +4320,12 @@
       <c r="H11" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="134"/>
+      <c r="I11" s="123"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -4336,7 +4342,7 @@
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="114"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -4355,7 +4361,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="109" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -4374,9 +4380,9 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="135"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137" t="s">
+      <c r="A15" s="54"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="119" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -4388,16 +4394,16 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="116" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="135"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="138"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -4407,14 +4413,14 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="138"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -4433,7 +4439,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="139"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -4540,30 +4546,30 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="9" width="10.1796875" customWidth="1"/>
+    <col min="1" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="116" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -4586,7 +4592,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="43" t="s">
         <v>64</v>
       </c>
@@ -4606,7 +4612,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="116" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
@@ -4632,16 +4638,16 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="116" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="116" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -4658,11 +4664,11 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="113"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -4686,11 +4692,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -4707,7 +4713,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -4745,13 +4751,13 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="116" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="116" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -4770,11 +4776,11 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="113"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -4791,11 +4797,11 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="114"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="113"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -4816,7 +4822,7 @@
       <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="114"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -4856,13 +4862,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="116" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="116" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -4874,22 +4880,22 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="116" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="126" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="114"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -4899,20 +4905,20 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="114"/>
+      <c r="I16" s="118"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="116" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -4928,16 +4934,16 @@
       <c r="H17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="116" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="114"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -4953,7 +4959,7 @@
       <c r="H18" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="114"/>
+      <c r="I18" s="118"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="8"/>
@@ -5056,39 +5062,39 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="127" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -5111,7 +5117,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
@@ -5131,7 +5137,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="129" t="s">
         <v>192</v>
       </c>
       <c r="L3" s="36"/>
@@ -5157,12 +5163,12 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="116" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -5181,7 +5187,7 @@
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -5207,7 +5213,7 @@
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -5224,7 +5230,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -5268,7 +5274,7 @@
       <c r="B10" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="116" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -5289,7 +5295,7 @@
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -5308,7 +5314,7 @@
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -5323,7 +5329,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C13" s="114"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -5363,13 +5369,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="116" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="116" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -5381,22 +5387,22 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="116" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="116" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="114"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -5406,20 +5412,20 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="130"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="116" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -5436,11 +5442,11 @@
       <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="114"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -5527,12 +5533,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="12.75">
       <c r="C23" s="44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.5">
+    <row r="24" spans="1:9" ht="12.75">
       <c r="C24" s="55"/>
       <c r="D24" s="37" t="s">
         <v>114</v>
@@ -5546,7 +5552,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.5">
+    <row r="25" spans="1:9" ht="12.75">
       <c r="C25" s="57"/>
       <c r="D25" s="58" t="s">
         <v>117</v>
@@ -5563,8 +5569,11 @@
       <c r="H25" s="50" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="12.5">
+      <c r="I25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75">
       <c r="C26" s="61" t="s">
         <v>121</v>
       </c>
@@ -5584,7 +5593,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.5">
+    <row r="27" spans="1:9" ht="12.75">
       <c r="C27" s="61" t="s">
         <v>126</v>
       </c>
@@ -5600,7 +5609,7 @@
       <c r="G27" s="62"/>
       <c r="H27" s="49"/>
     </row>
-    <row r="28" spans="1:9" ht="12.5">
+    <row r="28" spans="1:9" ht="12.75">
       <c r="C28" s="61" t="s">
         <v>128</v>
       </c>
@@ -5618,7 +5627,7 @@
       </c>
       <c r="H28" s="49"/>
     </row>
-    <row r="29" spans="1:9" ht="12.5">
+    <row r="29" spans="1:9" ht="12.75">
       <c r="C29" s="61" t="s">
         <v>131</v>
       </c>
@@ -5638,7 +5647,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.5">
+    <row r="30" spans="1:9" ht="12.75">
       <c r="C30" s="64"/>
       <c r="D30" s="65" t="s">
         <v>136</v>
@@ -5687,39 +5696,39 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
       <c r="K1" s="97" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="127" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -5741,8 +5750,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="13">
-      <c r="A3" s="117"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="128"/>
       <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
@@ -5762,7 +5771,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="129" t="s">
         <v>192</v>
       </c>
       <c r="K3" s="97" t="s">
@@ -5791,7 +5800,7 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="118"/>
       <c r="K4" s="96" t="s">
         <v>80</v>
       </c>
@@ -5802,7 +5811,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="116" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -5827,7 +5836,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -5856,7 +5865,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -5879,7 +5888,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -5895,7 +5904,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="13">
+    <row r="9" spans="1:12">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="37" t="s">
@@ -5926,7 +5935,7 @@
       <c r="B10" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="116" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -5957,7 +5966,7 @@
       <c r="B11" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="122"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -5982,7 +5991,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -6003,7 +6012,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="114"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -6050,14 +6059,14 @@
       <c r="K14" s="101"/>
       <c r="L14" s="101"/>
     </row>
-    <row r="15" spans="1:12" ht="13">
-      <c r="A15" s="112" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="116" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="116" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -6069,13 +6078,13 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="116" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="116" t="s">
         <v>105</v>
       </c>
       <c r="K15" s="103" t="s">
@@ -6083,11 +6092,11 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="114"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -6097,11 +6106,11 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="130"/>
       <c r="K16" s="96" t="s">
         <v>5</v>
       </c>
@@ -6110,13 +6119,13 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="116" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -6139,11 +6148,11 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="114"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -6193,7 +6202,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B20" s="95" t="s">
@@ -6221,8 +6230,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="13">
-      <c r="A21" s="121"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="132"/>
       <c r="B21" s="95" t="s">
         <v>65</v>
       </c>
@@ -6259,7 +6268,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13">
+    <row r="23" spans="1:12">
       <c r="C23" s="44" t="s">
         <v>113</v>
       </c>
@@ -6334,7 +6343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="13">
+    <row r="27" spans="1:12">
       <c r="C27" s="61" t="s">
         <v>126</v>
       </c>
@@ -6427,12 +6436,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="13">
+    <row r="32" spans="1:12">
       <c r="A32" s="97" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="97" customFormat="1" ht="13">
+    <row r="33" spans="1:5" s="97" customFormat="1">
       <c r="A33" s="77" t="s">
         <v>217</v>
       </c>
@@ -6459,6 +6468,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:D1"/>
@@ -6466,11 +6480,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="landscape" r:id="rId1"/>
@@ -6485,41 +6494,41 @@
       <selection activeCell="O19" sqref="O19:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
       <c r="K1" s="97" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="127" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -6541,8 +6550,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="13">
-      <c r="A3" s="117"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="128"/>
       <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
@@ -6562,7 +6571,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="129" t="s">
         <v>192</v>
       </c>
       <c r="K3" s="97" t="s">
@@ -6591,7 +6600,7 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="118"/>
       <c r="K4" s="96" t="s">
         <v>66</v>
       </c>
@@ -6602,7 +6611,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="116" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -6627,7 +6636,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="117"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -6656,7 +6665,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -6679,7 +6688,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -6722,14 +6731,14 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="13">
+    <row r="10" spans="1:12">
       <c r="A10" s="43" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="116" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -6753,7 +6762,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="54"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -6778,7 +6787,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -6799,7 +6808,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="114"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -6851,7 +6860,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="133" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="83" t="s">
@@ -6863,18 +6872,18 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="116" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="126" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="C16" s="124"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="84" t="s">
         <v>46</v>
       </c>
@@ -6884,14 +6893,14 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="114"/>
+      <c r="I16" s="118"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="C17" s="124"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="84" t="s">
         <v>48</v>
       </c>
@@ -6908,7 +6917,7 @@
       <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="C18" s="124"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="83" t="s">
         <v>50</v>
       </c>
@@ -6946,7 +6955,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="135" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="88" t="s">
@@ -6975,7 +6984,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="126"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="88" t="s">
         <v>65</v>
       </c>
@@ -7001,7 +7010,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13">
+    <row r="23" spans="1:9">
       <c r="C23" s="44"/>
     </row>
     <row r="26" spans="1:9">

--- a/Pinouts/Pinouts.xlsx
+++ b/Pinouts/Pinouts.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SamL3\Documents\GitHub\ScratchBuiltRobotics\Pinouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92072A65-F6EC-479E-B78A-B77F61681328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D21C989-8242-4EDB-A036-6AAFE1DF8FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All Pins" sheetId="1" r:id="rId1"/>
-    <sheet name="Default Pins" sheetId="2" r:id="rId2"/>
-    <sheet name="BLEJoystickController Pins" sheetId="3" r:id="rId3"/>
-    <sheet name="AnalogToDigital" sheetId="4" r:id="rId4"/>
-    <sheet name="BLESingleJoystick" sheetId="12" r:id="rId5"/>
-    <sheet name=" Brain Pins" sheetId="5" r:id="rId6"/>
-    <sheet name="RCCar Pins" sheetId="6" r:id="rId7"/>
-    <sheet name="Robot" sheetId="11" r:id="rId8"/>
-    <sheet name="Crawler" sheetId="10" r:id="rId9"/>
-    <sheet name="Touch LED TFTILI9341" sheetId="7" r:id="rId10"/>
-    <sheet name="Screen ST7735" sheetId="9" r:id="rId11"/>
-    <sheet name="DRV8833 Motor Driver" sheetId="8" r:id="rId12"/>
+    <sheet name="Standard Pins" sheetId="13" r:id="rId1"/>
+    <sheet name="All Pins" sheetId="1" r:id="rId2"/>
+    <sheet name="Default Pins" sheetId="2" r:id="rId3"/>
+    <sheet name="BLEJoystickController Pins" sheetId="3" r:id="rId4"/>
+    <sheet name="AnalogToDigital" sheetId="4" r:id="rId5"/>
+    <sheet name="BLESingleJoystick" sheetId="12" r:id="rId6"/>
+    <sheet name=" Brain Pins" sheetId="5" r:id="rId7"/>
+    <sheet name="RCCar Pins" sheetId="6" r:id="rId8"/>
+    <sheet name="Robot" sheetId="11" r:id="rId9"/>
+    <sheet name="Crawler" sheetId="10" r:id="rId10"/>
+    <sheet name="Touch LED TFTILI9341" sheetId="7" r:id="rId11"/>
+    <sheet name="Screen ST7735" sheetId="9" r:id="rId12"/>
+    <sheet name="DRV8833 Motor Driver" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="221">
   <si>
     <t>LEFT</t>
   </si>
@@ -1342,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,6 +1598,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1612,6 +1633,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1631,7 +1667,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1642,39 +1677,20 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1890,508 +1906,1125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1363F85F-892D-48D0-926D-4A26C044C284}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="3.7265625" customWidth="1"/>
-    <col min="6" max="9" width="10.1796875" customWidth="1"/>
+    <col min="6" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="33">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="132"/>
+      <c r="B3" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="33">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="G3" s="35"/>
+      <c r="H3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="33">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="F4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="122"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="33">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11" t="s">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="33">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="G6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="33">
         <v>6</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="38" t="s">
         <v>24</v>
       </c>
+      <c r="G7" s="35"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="11" t="s">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="33">
         <v>7</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="38" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="33">
         <v>8</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>29</v>
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11" t="s">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="33">
         <v>9</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11" t="s">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="149"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="33">
         <v>10</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="11" t="s">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="54"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="33">
         <v>11</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="11" t="s">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="C13" s="122"/>
+      <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="6">
-        <v>12</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="33">
+        <v>12</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="13"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="C14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="33">
         <v>13</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="8"/>
+      <c r="F14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="33">
+        <v>14</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="120" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="122"/>
+      <c r="B16" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="121"/>
+      <c r="D16" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="33">
+        <v>15</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="122"/>
+      <c r="H16" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="134"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="121"/>
+      <c r="D17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="33">
+        <v>16</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="122"/>
+      <c r="B18" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="122"/>
+      <c r="D18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="33">
+        <v>17</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="33">
+        <v>18</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="6">
-        <v>14</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17" t="s">
+      <c r="D20" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="33">
+        <v>19</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="6">
-        <v>15</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="6">
-        <v>16</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="6">
-        <v>17</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="6">
-        <v>18</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="6">
-        <v>19</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="33">
         <v>20</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="H21" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13">
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.5">
+      <c r="B24" s="141"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.5">
+      <c r="B25" s="141"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="145"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.5">
+      <c r="B26" s="141"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="145"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.5">
+      <c r="B27" s="141"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="145"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.5">
+      <c r="B28" s="141"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="145"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.5">
+      <c r="B29" s="141"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="145"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.5">
+      <c r="B30" s="141"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="11">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="140" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31540CD4-B126-4FE7-A4C7-88A45F1D742B}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13">
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
+      <c r="K1" s="97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="33">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="13">
+      <c r="A3" s="132"/>
+      <c r="B3" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="97"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="33">
+        <v>3</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="122"/>
+      <c r="K4" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="30"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="120" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="33">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="105" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="30"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="33">
+        <v>5</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="30"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="33">
+        <v>6</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" s="96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="33">
+        <v>7</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="33">
+        <v>8</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="13">
+      <c r="A10" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="33">
+        <v>9</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="33">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="K11" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="33">
+        <v>11</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="122"/>
+      <c r="D13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="33">
+        <v>12</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="33">
+        <v>13</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="33">
+        <v>14</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="138"/>
+      <c r="D16" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="33">
+        <v>15</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="122"/>
+      <c r="H16" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="122"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="C17" s="138"/>
+      <c r="D17" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="33">
+        <v>16</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="C18" s="138"/>
+      <c r="D18" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="33">
+        <v>17</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="33">
+        <v>18</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="139" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="33">
+        <v>19</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="140"/>
+      <c r="B21" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="33">
+        <v>20</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="13">
+      <c r="C23" s="44"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="C26" s="77" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C10:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2410,7 +3043,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13">
       <c r="A1" s="44" t="s">
         <v>140</v>
       </c>
@@ -2628,11 +3261,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B43BB-6571-4E49-8DE6-1A5CDADBA573}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2833,7 +3466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3054,6 +3687,508 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="9" width="10.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="116"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6">
+        <v>11</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="6">
+        <v>12</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6">
+        <v>13</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6">
+        <v>14</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6">
+        <v>15</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="6">
+        <v>16</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="6">
+        <v>17</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6">
+        <v>18</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="6">
+        <v>19</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="6">
+        <v>20</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup scale="140" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3072,19 +4207,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="30"/>
@@ -3142,7 +4277,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="30"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="120" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -3158,7 +4293,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="30"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -3175,7 +4310,7 @@
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -3190,7 +4325,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -3223,7 +4358,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="30"/>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="120" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3242,7 +4377,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="B11" s="30"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -3260,7 +4395,7 @@
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -3275,7 +4410,7 @@
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="114"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -3306,7 +4441,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="B15" s="30"/>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="120" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -3318,14 +4453,14 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="120" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="30"/>
-      <c r="C16" s="113"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -3335,13 +4470,13 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="113"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -3359,7 +4494,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="114"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3446,7 +4581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3465,22 +4600,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="120" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -3503,7 +4638,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="43" t="s">
         <v>65</v>
       </c>
@@ -3525,7 +4660,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="120" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
@@ -3551,7 +4686,7 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="43" t="s">
@@ -3560,7 +4695,7 @@
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="120" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -3583,7 +4718,7 @@
       <c r="B6" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -3609,7 +4744,7 @@
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -3626,7 +4761,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -3670,7 +4805,7 @@
       <c r="B10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="120" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -3691,7 +4826,7 @@
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -3710,7 +4845,7 @@
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -3727,7 +4862,7 @@
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="114"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -3767,7 +4902,7 @@
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="120" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -3779,7 +4914,7 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="120" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="8"/>
@@ -3787,7 +4922,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="30"/>
-      <c r="C16" s="113"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -3797,14 +4932,14 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="113"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -3823,7 +4958,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="114"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3919,7 +5054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3933,7 +5068,7 @@
     <col min="1" max="1" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13">
       <c r="A1" s="33"/>
       <c r="B1" s="44" t="s">
         <v>77</v>
@@ -4061,14 +5196,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211147EF-ADFD-4B7E-A66F-BDFB2B4B34E8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -4080,23 +5215,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
@@ -4114,8 +5249,8 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="128"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="53" t="s">
         <v>8</v>
       </c>
@@ -4134,7 +5269,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="120" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
@@ -4160,16 +5295,16 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="128" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -4186,9 +5321,9 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="128"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="122"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -4201,18 +5336,18 @@
       <c r="G6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="128"/>
+      <c r="J6" s="106"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -4229,7 +5364,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -4273,7 +5408,7 @@
       <c r="B10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="120" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -4291,14 +5426,14 @@
       <c r="H10" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="I10" s="133" t="s">
+      <c r="I10" s="126" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -4314,12 +5449,12 @@
       <c r="H11" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="I11" s="134"/>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -4336,7 +5471,7 @@
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="114"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -4355,7 +5490,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="113" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -4374,9 +5509,9 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="135"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137" t="s">
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="123" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -4388,16 +5523,16 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="120" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="135"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="138"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -4407,14 +5542,14 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="138"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -4433,7 +5568,7 @@
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="139"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -4529,7 +5664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4548,22 +5683,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="120" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -4586,7 +5721,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="114"/>
+      <c r="A3" s="122"/>
       <c r="B3" s="43" t="s">
         <v>64</v>
       </c>
@@ -4606,7 +5741,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="120" t="s">
         <v>67</v>
       </c>
       <c r="L3" s="36"/>
@@ -4632,16 +5767,16 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="120" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="120" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -4658,11 +5793,11 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="113"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -4686,11 +5821,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -4707,7 +5842,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -4745,13 +5880,13 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="120" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="120" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -4770,11 +5905,11 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="113"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -4791,11 +5926,11 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="114"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="113"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -4816,7 +5951,7 @@
       <c r="B13" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="114"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -4856,13 +5991,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="120" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -4874,22 +6009,22 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="120" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="130" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="114"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -4899,20 +6034,20 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="114"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -4928,16 +6063,16 @@
       <c r="H17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="120" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="114"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -4953,7 +6088,7 @@
       <c r="H18" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="114"/>
+      <c r="I18" s="122"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="8"/>
@@ -5049,7 +6184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5057,7 +6192,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J30"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -5073,22 +6208,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="131" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -5111,7 +6246,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="117"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
@@ -5131,7 +6266,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="133" t="s">
         <v>192</v>
       </c>
       <c r="L3" s="36"/>
@@ -5157,12 +6292,12 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="120" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -5181,7 +6316,7 @@
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -5207,7 +6342,7 @@
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -5224,7 +6359,7 @@
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -5268,7 +6403,7 @@
       <c r="B10" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="120" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -5289,7 +6424,7 @@
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="54"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -5308,7 +6443,7 @@
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -5323,7 +6458,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C13" s="114"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -5363,13 +6498,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="120" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -5381,22 +6516,22 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="120" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="120" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="114"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -5406,20 +6541,20 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="134"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -5436,11 +6571,11 @@
       <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="114"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -5527,7 +6662,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="13">
       <c r="C23" s="44" t="s">
         <v>113</v>
       </c>
@@ -5676,14 +6811,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1C3080-FCA5-4C5F-B176-604DA64226ED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -5701,25 +6836,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
       <c r="K1" s="97" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="131" t="s">
         <v>190</v>
       </c>
       <c r="B2" s="88" t="s">
@@ -5742,7 +6877,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="13">
-      <c r="A3" s="117"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="88" t="s">
         <v>65</v>
       </c>
@@ -5762,7 +6897,7 @@
       <c r="H3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="133" t="s">
         <v>192</v>
       </c>
       <c r="K3" s="97" t="s">
@@ -5791,7 +6926,7 @@
       <c r="H4" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="114"/>
+      <c r="I4" s="122"/>
       <c r="K4" s="96" t="s">
         <v>80</v>
       </c>
@@ -5802,7 +6937,7 @@
     <row r="5" spans="1:12">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="120" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -5827,7 +6962,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="32" t="s">
         <v>19</v>
       </c>
@@ -5856,7 +6991,7 @@
     <row r="7" spans="1:12">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="32" t="s">
         <v>22</v>
       </c>
@@ -5879,7 +7014,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
@@ -5926,7 +7061,7 @@
       <c r="B10" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="120" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -5957,7 +7092,7 @@
       <c r="B11" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="122"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="32" t="s">
         <v>33</v>
       </c>
@@ -5982,7 +7117,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="54"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="32" t="s">
         <v>37</v>
       </c>
@@ -6003,7 +7138,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" s="114"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
@@ -6051,13 +7186,13 @@
       <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:12" ht="13">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="120" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -6069,13 +7204,13 @@
       <c r="F15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="120" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="120" t="s">
         <v>105</v>
       </c>
       <c r="K15" s="103" t="s">
@@ -6083,11 +7218,11 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="114"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="113"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="39" t="s">
         <v>46</v>
       </c>
@@ -6097,11 +7232,11 @@
       <c r="F16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="134"/>
       <c r="K16" s="96" t="s">
         <v>5</v>
       </c>
@@ -6110,13 +7245,13 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="113"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="39" t="s">
         <v>48</v>
       </c>
@@ -6139,11 +7274,11 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="114"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="114"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="32" t="s">
         <v>50</v>
       </c>
@@ -6193,7 +7328,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="135" t="s">
         <v>199</v>
       </c>
       <c r="B20" s="95" t="s">
@@ -6222,7 +7357,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="13">
-      <c r="A21" s="121"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="95" t="s">
         <v>65</v>
       </c>
@@ -6459,6 +7594,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:D1"/>
@@ -6466,562 +7606,8 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31540CD4-B126-4FE7-A4C7-88A45F1D742B}">
-  <dimension ref="A1:L26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:O20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
-  <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="13">
-      <c r="A1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
-      <c r="K1" s="97" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="116" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="33">
-        <v>1</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="13">
-      <c r="A3" s="117"/>
-      <c r="B3" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="33">
-        <v>2</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="K3" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="33">
-        <v>3</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="114"/>
-      <c r="K4" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="30"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="112" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="33">
-        <v>4</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="K5" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="105" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="30"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="33">
-        <v>5</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="96" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="30"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="33">
-        <v>6</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="K7" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="L7" s="96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="33">
-        <v>7</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="K8" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="33">
-        <v>8</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="13">
-      <c r="A10" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="33">
-        <v>9</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="K10" s="103" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="54"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="33">
-        <v>10</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="K11" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="96" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="54"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="33">
-        <v>11</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="K12" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="C13" s="114"/>
-      <c r="D13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="33">
-        <v>12</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="33">
-        <v>13</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="K14" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="L14" s="96" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="C15" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="33">
-        <v>14</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="115" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="C16" s="124"/>
-      <c r="D16" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="33">
-        <v>15</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="114"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="C17" s="124"/>
-      <c r="D17" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="33">
-        <v>16</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="C18" s="124"/>
-      <c r="D18" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="33">
-        <v>17</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="54"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="33">
-        <v>18</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="125" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="33">
-        <v>19</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="126"/>
-      <c r="B21" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="33">
-        <v>20</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13">
-      <c r="C23" s="44"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="C26" s="77" t="s">
-        <v>191</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C10:C13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>